--- a/INFO6023_Gems W2018 - Project 1 - Marking scheme.xlsx
+++ b/INFO6023_Gems W2018 - Project 1 - Marking scheme.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF13A47-A1D7-4FB1-BDB9-BF23A22A93D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -423,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -431,7 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -441,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,9 +458,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,7 +570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -629,7 +640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -758,6 +775,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -793,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,10 +1019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -988,900 +1041,848 @@
       <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="12"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="38"/>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="38"/>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="38"/>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="39"/>
+      <c r="C12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="27"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="38"/>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="38"/>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="38"/>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="38"/>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="39"/>
+      <c r="C18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="32"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="32"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="C24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="41"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="41"/>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="41"/>
+      <c r="C26" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="41"/>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="38"/>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="41"/>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="41"/>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="41"/>
+      <c r="C31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="39"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="26" t="s">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="2"/>
+      <c r="M33" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="28">
-        <f>SUM(C6:C31)</f>
+    <row r="34" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="26">
+        <v>230</v>
+      </c>
+      <c r="D34" s="26">
+        <v>230</v>
+      </c>
+      <c r="E34" s="26">
+        <v>230</v>
+      </c>
+      <c r="F34" s="26">
+        <v>230</v>
+      </c>
+      <c r="G34" s="26">
+        <v>230</v>
+      </c>
+      <c r="H34" s="26">
+        <v>230</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26">
+        <f t="shared" ref="D34:J34" si="0">SUM(J6:J31)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="28">
-        <f t="shared" ref="D34:J34" si="0">SUM(D6:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="30">
-        <f>SUM(C34:J34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M36" s="31">
+      <c r="M34" s="28">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="29">
         <f>M34/1610</f>
-        <v>0</v>
+        <v>0.55900621118012417</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1913,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
